--- a/output/1Y_P34_KFSDIV.xlsx
+++ b/output/1Y_P34_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.9013</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.3527</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E3" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="H3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.035</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.8804</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E4" s="1">
-        <v>1524.0219</v>
+        <v>1520.9748</v>
       </c>
       <c r="F4" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="H4" s="1">
-        <v>21154.0333</v>
+        <v>21069.4556</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21154.0333</v>
+        <v>21069.4556</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1232</v>
+        <v>13.1495</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>348.7994</v>
+        <v>348.1032</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9651.2006</v>
+        <v>-9651.8968</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0395</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.6268</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E5" s="1">
-        <v>2244.4622</v>
+        <v>2239.9751</v>
       </c>
       <c r="F5" s="1">
-        <v>686.3262</v>
+        <v>684.9488</v>
       </c>
       <c r="H5" s="1">
-        <v>32829.2999</v>
+        <v>32698.2606</v>
       </c>
       <c r="I5" s="1">
-        <v>348.7994</v>
+        <v>348.1032</v>
       </c>
       <c r="J5" s="1">
-        <v>33178.0993</v>
+        <v>33046.3639</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3662</v>
+        <v>13.393</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10038.7555</v>
+        <v>-10038.6781</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.065</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>15.3636</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E6" s="1">
-        <v>2930.7884</v>
+        <v>2924.9239</v>
       </c>
       <c r="F6" s="1">
-        <v>653.4117</v>
+        <v>652.0993</v>
       </c>
       <c r="H6" s="1">
-        <v>45027.4603</v>
+        <v>44847.5658</v>
       </c>
       <c r="I6" s="1">
-        <v>310.0439</v>
+        <v>309.4251</v>
       </c>
       <c r="J6" s="1">
-        <v>45337.5042</v>
+        <v>45156.9909</v>
       </c>
       <c r="K6" s="1">
-        <v>40038.7555</v>
+        <v>40038.6781</v>
       </c>
       <c r="L6" s="1">
-        <v>13.6614</v>
+        <v>13.6888</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10038.7555</v>
+        <v>-10038.6781</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.8711</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E7" s="1">
-        <v>3584.2</v>
+        <v>3577.0233</v>
       </c>
       <c r="F7" s="1">
-        <v>723.7173</v>
+        <v>722.2642</v>
       </c>
       <c r="H7" s="1">
-        <v>49716.7972</v>
+        <v>49518.1637</v>
       </c>
       <c r="I7" s="1">
-        <v>271.2884</v>
+        <v>270.747</v>
       </c>
       <c r="J7" s="1">
-        <v>49988.0856</v>
+        <v>49788.9107</v>
       </c>
       <c r="K7" s="1">
-        <v>50077.511</v>
+        <v>50077.3563</v>
       </c>
       <c r="L7" s="1">
-        <v>13.9717</v>
+        <v>13.9997</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1318.8548</v>
+        <v>1316.2158</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8719.9007</v>
+        <v>-8722.4624</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0973</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.1252</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E8" s="1">
-        <v>4307.9174</v>
+        <v>4299.2875</v>
       </c>
       <c r="F8" s="1">
-        <v>726.2598</v>
+        <v>724.7711</v>
       </c>
       <c r="H8" s="1">
-        <v>60850.1945</v>
+        <v>60607.0555</v>
       </c>
       <c r="I8" s="1">
-        <v>1551.3877</v>
+        <v>1548.2846</v>
       </c>
       <c r="J8" s="1">
-        <v>62401.5822</v>
+        <v>62155.3401</v>
       </c>
       <c r="K8" s="1">
-        <v>60116.2665</v>
+        <v>60116.0344</v>
       </c>
       <c r="L8" s="1">
-        <v>13.9548</v>
+        <v>13.9828</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10258.5646</v>
+        <v>-10258.0474</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0402</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.1934</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>5034.1772</v>
+        <v>5024.0585</v>
       </c>
       <c r="F9" s="1">
-        <v>722.7701</v>
+        <v>721.2904</v>
       </c>
       <c r="H9" s="1">
-        <v>71452.09</v>
+        <v>71165.7893</v>
       </c>
       <c r="I9" s="1">
-        <v>1292.8231</v>
+        <v>1290.2371</v>
       </c>
       <c r="J9" s="1">
-        <v>72744.91310000001</v>
+        <v>72456.02650000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70374.8311</v>
+        <v>70374.0818</v>
       </c>
       <c r="L9" s="1">
-        <v>13.9794</v>
+        <v>14.0074</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10258.5646</v>
+        <v>-10258.0474</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0047</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>14.1176</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E10" s="1">
-        <v>5756.9472</v>
+        <v>5745.3489</v>
       </c>
       <c r="F10" s="1">
-        <v>726.6507</v>
+        <v>725.1605</v>
       </c>
       <c r="H10" s="1">
-        <v>81274.27800000001</v>
+        <v>80948.5191</v>
       </c>
       <c r="I10" s="1">
-        <v>1034.2584</v>
+        <v>1032.1897</v>
       </c>
       <c r="J10" s="1">
-        <v>82308.5365</v>
+        <v>81980.70879999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80633.39569999999</v>
+        <v>80632.1293</v>
       </c>
       <c r="L10" s="1">
-        <v>14.0063</v>
+        <v>14.0343</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2265.3797</v>
+        <v>2260.8263</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7993.1849</v>
+        <v>-7997.2211</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>15.3311</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E11" s="1">
-        <v>6483.598</v>
+        <v>6470.5094</v>
       </c>
       <c r="F11" s="1">
-        <v>718.3887999999999</v>
+        <v>716.8207</v>
       </c>
       <c r="H11" s="1">
-        <v>99400.6888</v>
+        <v>99001.3818</v>
       </c>
       <c r="I11" s="1">
-        <v>3041.0736</v>
+        <v>3034.9686</v>
       </c>
       <c r="J11" s="1">
-        <v>102441.7623</v>
+        <v>102036.3505</v>
       </c>
       <c r="K11" s="1">
-        <v>90891.96030000001</v>
+        <v>90890.1767</v>
       </c>
       <c r="L11" s="1">
-        <v>14.0188</v>
+        <v>14.0468</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11013.6912</v>
+        <v>-11011.6562</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1098</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>15.3637</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E12" s="1">
-        <v>7201.9868</v>
+        <v>7187.3301</v>
       </c>
       <c r="F12" s="1">
-        <v>716.8645</v>
+        <v>715.2981</v>
       </c>
       <c r="H12" s="1">
-        <v>110649.1647</v>
+        <v>110203.3322</v>
       </c>
       <c r="I12" s="1">
-        <v>2027.3824</v>
+        <v>2023.3124</v>
       </c>
       <c r="J12" s="1">
-        <v>112676.5471</v>
+        <v>112226.6446</v>
       </c>
       <c r="K12" s="1">
-        <v>101905.6515</v>
+        <v>101901.8329</v>
       </c>
       <c r="L12" s="1">
-        <v>14.1497</v>
+        <v>14.178</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11013.6912</v>
+        <v>-11011.6562</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>14.6447</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E13" s="1">
-        <v>7918.8513</v>
+        <v>7902.6282</v>
       </c>
       <c r="F13" s="1">
-        <v>752.0599</v>
+        <v>750.4195</v>
       </c>
       <c r="H13" s="1">
-        <v>115969.2018</v>
+        <v>115500.0716</v>
       </c>
       <c r="I13" s="1">
-        <v>1013.6912</v>
+        <v>1011.6562</v>
       </c>
       <c r="J13" s="1">
-        <v>116982.893</v>
+        <v>116511.7278</v>
       </c>
       <c r="K13" s="1">
-        <v>112919.3427</v>
+        <v>112913.4891</v>
       </c>
       <c r="L13" s="1">
-        <v>14.2596</v>
+        <v>14.2881</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6481.7881</v>
+        <v>6468.5971</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4531.9031</v>
+        <v>-4543.0591</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0464</v>
+        <v>-0.0468</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>15.486</v>
       </c>
       <c r="C14" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D14" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E14" s="1">
-        <v>8670.9112</v>
+        <v>8653.047699999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8670.9112</v>
+        <v>-8653.047699999999</v>
       </c>
       <c r="H14" s="1">
-        <v>134277.7306</v>
+        <v>133732.8521</v>
       </c>
       <c r="I14" s="1">
-        <v>6481.7881</v>
+        <v>6468.5971</v>
       </c>
       <c r="J14" s="1">
-        <v>140759.5187</v>
+        <v>140201.4492</v>
       </c>
       <c r="K14" s="1">
-        <v>123933.0338</v>
+        <v>123925.1453</v>
       </c>
       <c r="L14" s="1">
-        <v>14.293</v>
+        <v>14.3216</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134277.7306</v>
+        <v>133732.8521</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1085</v>
+        <v>0.1082</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.9013</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.3527</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E3" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>722.7147</v>
+        <v>727.2627</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9650.192999999999</v>
+        <v>-9730.411700000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.035</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.8804</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E4" s="1">
-        <v>1497.8244</v>
+        <v>1500.8255</v>
       </c>
       <c r="F4" s="1">
-        <v>663.4965999999999</v>
+        <v>664.833</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20790.4019</v>
+        <v>20790.3347</v>
       </c>
       <c r="I4" s="1">
-        <v>349.807</v>
+        <v>269.5883</v>
       </c>
       <c r="J4" s="1">
-        <v>21140.2089</v>
+        <v>21059.9229</v>
       </c>
       <c r="K4" s="1">
-        <v>19650.193</v>
+        <v>19730.4117</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1192</v>
+        <v>13.1464</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>348.7994</v>
+        <v>348.1032</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8860.798699999999</v>
+        <v>-8898.5268</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0388</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.6268</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E5" s="1">
-        <v>2161.321</v>
+        <v>2165.6584</v>
       </c>
       <c r="F5" s="1">
-        <v>573.3852000000001</v>
+        <v>574.518</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31613.21</v>
+        <v>31613.4155</v>
       </c>
       <c r="I5" s="1">
-        <v>1489.0083</v>
+        <v>1371.0615</v>
       </c>
       <c r="J5" s="1">
-        <v>33102.2183</v>
+        <v>32984.477</v>
       </c>
       <c r="K5" s="1">
-        <v>28859.7911</v>
+        <v>28977.0418</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3528</v>
+        <v>13.3802</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8386.790000000001</v>
+        <v>-8420.193799999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>15.3636</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E6" s="1">
-        <v>2734.7062</v>
+        <v>2740.1765</v>
       </c>
       <c r="F6" s="1">
-        <v>519.7394</v>
+        <v>520.7853</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>42014.9315</v>
+        <v>42014.8518</v>
       </c>
       <c r="I6" s="1">
-        <v>3102.2183</v>
+        <v>2950.8677</v>
       </c>
       <c r="J6" s="1">
-        <v>45117.1498</v>
+        <v>44965.7194</v>
       </c>
       <c r="K6" s="1">
-        <v>37246.5811</v>
+        <v>37397.2355</v>
       </c>
       <c r="L6" s="1">
-        <v>13.62</v>
+        <v>13.6477</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7985.0685</v>
+        <v>-8017.1765</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0467</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.8711</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E7" s="1">
-        <v>3254.4456</v>
+        <v>3260.9617</v>
       </c>
       <c r="F7" s="1">
-        <v>1071.0946</v>
+        <v>1073.2336</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>45142.74</v>
+        <v>45142.7975</v>
       </c>
       <c r="I7" s="1">
-        <v>5117.1498</v>
+        <v>4933.6911</v>
       </c>
       <c r="J7" s="1">
-        <v>50259.8898</v>
+        <v>50076.4887</v>
       </c>
       <c r="K7" s="1">
-        <v>45231.6496</v>
+        <v>45414.4121</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8984</v>
+        <v>13.9267</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1230.6178</v>
+        <v>1233.0794</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-13626.6422</v>
+        <v>-13683.6875</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0881</v>
+        <v>-0.089</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.1252</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E8" s="1">
-        <v>4325.5402</v>
+        <v>4334.1954</v>
       </c>
       <c r="F8" s="1">
-        <v>630.1419</v>
+        <v>631.4002</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>61099.1198</v>
+        <v>61099.1519</v>
       </c>
       <c r="I8" s="1">
-        <v>1490.5075</v>
+        <v>1250.0036</v>
       </c>
       <c r="J8" s="1">
-        <v>62589.6273</v>
+        <v>62349.1555</v>
       </c>
       <c r="K8" s="1">
-        <v>60088.9096</v>
+        <v>60331.179</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8917</v>
+        <v>13.9198</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8900.8802</v>
+        <v>-8936.522199999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0387</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>14.1934</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>4955.682</v>
+        <v>4965.5955</v>
       </c>
       <c r="F9" s="1">
-        <v>680.7405</v>
+        <v>682.1277</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70337.97749999999</v>
+        <v>70337.6605</v>
       </c>
       <c r="I9" s="1">
-        <v>2589.6273</v>
+        <v>2313.4814</v>
       </c>
       <c r="J9" s="1">
-        <v>72927.6048</v>
+        <v>72651.1419</v>
       </c>
       <c r="K9" s="1">
-        <v>68989.7898</v>
+        <v>69267.7012</v>
       </c>
       <c r="L9" s="1">
-        <v>13.9214</v>
+        <v>13.9495</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9662.022499999999</v>
+        <v>-9701.0844</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0047</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>14.1176</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E10" s="1">
-        <v>5636.4226</v>
+        <v>5647.7233</v>
       </c>
       <c r="F10" s="1">
-        <v>738.5987</v>
+        <v>740.0576</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79572.7592</v>
+        <v>79573.0321</v>
       </c>
       <c r="I10" s="1">
-        <v>2927.6048</v>
+        <v>2612.3971</v>
       </c>
       <c r="J10" s="1">
-        <v>82500.364</v>
+        <v>82185.4292</v>
       </c>
       <c r="K10" s="1">
-        <v>78651.81230000001</v>
+        <v>78968.7856</v>
       </c>
       <c r="L10" s="1">
-        <v>13.9542</v>
+        <v>13.9824</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2230.0569</v>
+        <v>2234.518</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8197.1839</v>
+        <v>-8234.263199999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0052</v>
+        <v>-0.0056</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>15.3311</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E11" s="1">
-        <v>6375.0213</v>
+        <v>6387.7809</v>
       </c>
       <c r="F11" s="1">
-        <v>147.6679</v>
+        <v>147.996</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>97736.0883</v>
+        <v>97735.6027</v>
       </c>
       <c r="I11" s="1">
-        <v>4730.4209</v>
+        <v>4378.1339</v>
       </c>
       <c r="J11" s="1">
-        <v>102466.5092</v>
+        <v>102113.7366</v>
       </c>
       <c r="K11" s="1">
-        <v>89079.05319999999</v>
+        <v>89437.5667</v>
       </c>
       <c r="L11" s="1">
-        <v>13.9731</v>
+        <v>14.0014</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2263.9117</v>
+        <v>-2273.4843</v>
       </c>
       <c r="Q11" s="3">
         <v>0.1077</v>
@@ -1980,34 +1980,34 @@
         <v>15.3637</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E12" s="1">
-        <v>6522.6892</v>
+        <v>6535.7768</v>
       </c>
       <c r="F12" s="1">
-        <v>637.0445</v>
+        <v>638.2922</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100212.6397</v>
+        <v>100213.0663</v>
       </c>
       <c r="I12" s="1">
-        <v>12466.5092</v>
+        <v>12104.6496</v>
       </c>
       <c r="J12" s="1">
-        <v>112679.1488</v>
+        <v>112317.7159</v>
       </c>
       <c r="K12" s="1">
-        <v>91342.96490000001</v>
+        <v>91711.05100000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.0039</v>
+        <v>14.0322</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9787.3603</v>
+        <v>-9826.188599999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>14.6447</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E13" s="1">
-        <v>7159.7337</v>
+        <v>7174.069</v>
       </c>
       <c r="F13" s="1">
-        <v>1034.357</v>
+        <v>1036.4487</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104852.1515</v>
+        <v>104851.8881</v>
       </c>
       <c r="I13" s="1">
-        <v>12679.1488</v>
+        <v>12278.461</v>
       </c>
       <c r="J13" s="1">
-        <v>117531.3003</v>
+        <v>117130.3491</v>
       </c>
       <c r="K13" s="1">
-        <v>101130.3252</v>
+        <v>101537.2396</v>
       </c>
       <c r="L13" s="1">
-        <v>14.1249</v>
+        <v>14.1534</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>5870.4203</v>
+        <v>5882.1992</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9277.4282</v>
+        <v>-9326.6486</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.042</v>
+        <v>-0.0424</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>15.486</v>
       </c>
       <c r="C14" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D14" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E14" s="1">
-        <v>8194.090700000001</v>
+        <v>8210.5177</v>
       </c>
       <c r="F14" s="1">
-        <v>-8194.090700000001</v>
+        <v>-8210.5177</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126893.6885</v>
+        <v>126893.5506</v>
       </c>
       <c r="I14" s="1">
-        <v>13401.7206</v>
+        <v>12951.8123</v>
       </c>
       <c r="J14" s="1">
-        <v>140295.4091</v>
+        <v>139845.363</v>
       </c>
       <c r="K14" s="1">
-        <v>116278.1737</v>
+        <v>116746.0874</v>
       </c>
       <c r="L14" s="1">
-        <v>14.1905</v>
+        <v>14.2191</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126893.6885</v>
+        <v>126893.5506</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2137,774 +2137,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12.9013</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12.9013</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12.9014</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>775.1097</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13.3527</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13.3527</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13.3527</v>
-      </c>
-      <c r="E3" s="1">
-        <v>775.1097</v>
-      </c>
-      <c r="F3" s="1">
-        <v>726.4593</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20050</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10349.807</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10349.807</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>12.9014</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-9700.192999999999</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13.8804</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13.8804</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13.8804</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1501.569</v>
-      </c>
-      <c r="F4" s="1">
-        <v>670.5766</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30150.25</v>
-      </c>
-      <c r="H4" s="1">
-        <v>20842.3779</v>
-      </c>
-      <c r="I4" s="1">
-        <v>299.807</v>
-      </c>
-      <c r="J4" s="1">
-        <v>21142.1849</v>
-      </c>
-      <c r="K4" s="1">
-        <v>19700.193</v>
-      </c>
-      <c r="L4" s="1">
-        <v>13.1197</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="1">
-        <v>348.7994</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-8959.072700000001</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0.0389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>14.6268</v>
-      </c>
-      <c r="C5" s="1">
-        <v>14.6268</v>
-      </c>
-      <c r="D5" s="1">
-        <v>14.6268</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2172.1456</v>
-      </c>
-      <c r="F5" s="1">
-        <v>583.1393</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40301.0012</v>
-      </c>
-      <c r="H5" s="1">
-        <v>31771.5395</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1340.7343</v>
-      </c>
-      <c r="J5" s="1">
-        <v>33112.2738</v>
-      </c>
-      <c r="K5" s="1">
-        <v>29008.0651</v>
-      </c>
-      <c r="L5" s="1">
-        <v>13.3546</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-8529.461799999999</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.0633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15.3636</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15.3636</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15.3636</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2755.2849</v>
-      </c>
-      <c r="F6" s="1">
-        <v>531.8683</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50502.5063</v>
-      </c>
-      <c r="H6" s="1">
-        <v>42331.0952</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2811.2725</v>
-      </c>
-      <c r="J6" s="1">
-        <v>45142.3677</v>
-      </c>
-      <c r="K6" s="1">
-        <v>37537.5268</v>
-      </c>
-      <c r="L6" s="1">
-        <v>13.6238</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-8171.4111</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0.0471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13.8711</v>
-      </c>
-      <c r="C7" s="1">
-        <v>13.8711</v>
-      </c>
-      <c r="D7" s="1">
-        <v>13.8711</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3287.1532</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1055.4218</v>
-      </c>
-      <c r="G7" s="1">
-        <v>60755.0188</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45596.4302</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4639.8614</v>
-      </c>
-      <c r="J7" s="1">
-        <v>50236.2916</v>
-      </c>
-      <c r="K7" s="1">
-        <v>45708.9379</v>
-      </c>
-      <c r="L7" s="1">
-        <v>13.9053</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1239.8782</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-13399.9832</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-0.089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14.1252</v>
-      </c>
-      <c r="C8" s="1">
-        <v>14.1252</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14.1252</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4342.575</v>
-      </c>
-      <c r="F8" s="1">
-        <v>688.0649</v>
-      </c>
-      <c r="G8" s="1">
-        <v>71058.7939</v>
-      </c>
-      <c r="H8" s="1">
-        <v>61339.7399</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1239.8782</v>
-      </c>
-      <c r="J8" s="1">
-        <v>62579.6181</v>
-      </c>
-      <c r="K8" s="1">
-        <v>60348.7994</v>
-      </c>
-      <c r="L8" s="1">
-        <v>13.897</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-9719.054</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0.0389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14.1934</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14.1934</v>
-      </c>
-      <c r="D9" s="1">
-        <v>14.1934</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5030.6398</v>
-      </c>
-      <c r="F9" s="1">
-        <v>705.4127</v>
-      </c>
-      <c r="G9" s="1">
-        <v>81414.0879</v>
-      </c>
-      <c r="H9" s="1">
-        <v>71401.8835</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1520.8242</v>
-      </c>
-      <c r="J9" s="1">
-        <v>72922.7078</v>
-      </c>
-      <c r="K9" s="1">
-        <v>70067.8533</v>
-      </c>
-      <c r="L9" s="1">
-        <v>13.9282</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-10012.2043</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.0047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>14.1176</v>
-      </c>
-      <c r="C10" s="1">
-        <v>14.1176</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14.1176</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5736.0525</v>
-      </c>
-      <c r="F10" s="1">
-        <v>767.9679</v>
-      </c>
-      <c r="G10" s="1">
-        <v>91821.1583</v>
-      </c>
-      <c r="H10" s="1">
-        <v>80979.2951</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1508.6199</v>
-      </c>
-      <c r="J10" s="1">
-        <v>82487.91499999999</v>
-      </c>
-      <c r="K10" s="1">
-        <v>80080.0577</v>
-      </c>
-      <c r="L10" s="1">
-        <v>13.9608</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2263.7879</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-8578.0753</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>-0.0052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15.3311</v>
-      </c>
-      <c r="C11" s="1">
-        <v>15.3311</v>
-      </c>
-      <c r="D11" s="1">
-        <v>15.3311</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6504.0204</v>
-      </c>
-      <c r="F11" s="1">
-        <v>167.4033</v>
-      </c>
-      <c r="G11" s="1">
-        <v>102280.2641</v>
-      </c>
-      <c r="H11" s="1">
-        <v>99713.787</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2930.5446</v>
-      </c>
-      <c r="J11" s="1">
-        <v>102644.3317</v>
-      </c>
-      <c r="K11" s="1">
-        <v>90921.9209</v>
-      </c>
-      <c r="L11" s="1">
-        <v>13.9793</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-2566.477</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.1098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15.3637</v>
-      </c>
-      <c r="C12" s="1">
-        <v>15.3637</v>
-      </c>
-      <c r="D12" s="1">
-        <v>15.3637</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6671.4237</v>
-      </c>
-      <c r="F12" s="1">
-        <v>670.0152</v>
-      </c>
-      <c r="G12" s="1">
-        <v>112791.6654</v>
-      </c>
-      <c r="H12" s="1">
-        <v>102497.7525</v>
-      </c>
-      <c r="I12" s="1">
-        <v>10364.0676</v>
-      </c>
-      <c r="J12" s="1">
-        <v>112861.8201</v>
-      </c>
-      <c r="K12" s="1">
-        <v>93488.3979</v>
-      </c>
-      <c r="L12" s="1">
-        <v>14.0133</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-10293.9129</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.0019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>14.6447</v>
-      </c>
-      <c r="C13" s="1">
-        <v>14.6447</v>
-      </c>
-      <c r="D13" s="1">
-        <v>14.6447</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7341.4389</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1081.7875</v>
-      </c>
-      <c r="G13" s="1">
-        <v>123355.6237</v>
-      </c>
-      <c r="H13" s="1">
-        <v>107513.1708</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10070.1547</v>
-      </c>
-      <c r="J13" s="1">
-        <v>117583.3255</v>
-      </c>
-      <c r="K13" s="1">
-        <v>103782.3108</v>
-      </c>
-      <c r="L13" s="1">
-        <v>14.1365</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>6004.2813</v>
-      </c>
-      <c r="O13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-9838.1716</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>-0.043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>15.486</v>
-      </c>
-      <c r="C14" s="1">
-        <v>15.486</v>
-      </c>
-      <c r="D14" s="1">
-        <v>15.486</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8423.2264</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-8423.2264</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>130442.0841</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10231.9831</v>
-      </c>
-      <c r="J14" s="1">
-        <v>140674.0672</v>
-      </c>
-      <c r="K14" s="1">
-        <v>119624.7637</v>
-      </c>
-      <c r="L14" s="1">
-        <v>14.2018</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130442.0841</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.1026</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -2992,16 +2224,16 @@
         <v>12.9013</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +2271,34 @@
         <v>13.3527</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E3" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>730.2039</v>
+        <v>731.0148</v>
       </c>
       <c r="G3" s="1">
-        <v>20100</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9750.192999999999</v>
+        <v>-9780.612499999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.035</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +2324,49 @@
         <v>13.8804</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E4" s="1">
-        <v>1505.3135</v>
+        <v>1504.5775</v>
       </c>
       <c r="F4" s="1">
-        <v>677.6926999999999</v>
+        <v>671.9272999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>30301</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20894.354</v>
+        <v>20842.3105</v>
       </c>
       <c r="I4" s="1">
-        <v>249.807</v>
+        <v>219.3875</v>
       </c>
       <c r="J4" s="1">
-        <v>21144.1609</v>
+        <v>21061.698</v>
       </c>
       <c r="K4" s="1">
-        <v>19750.193</v>
+        <v>19780.6125</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1203</v>
+        <v>13.147</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>348.7994</v>
+        <v>348.1032</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9057.8467</v>
+        <v>-8997.195400000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.039</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +2377,34 @@
         <v>14.6268</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E5" s="1">
-        <v>2183.0063</v>
+        <v>2176.5048</v>
       </c>
       <c r="F5" s="1">
-        <v>592.9946</v>
+        <v>584.2916</v>
       </c>
       <c r="G5" s="1">
-        <v>40604.01</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31930.3959</v>
+        <v>31771.7461</v>
       </c>
       <c r="I5" s="1">
-        <v>1191.9603</v>
+        <v>1222.1921</v>
       </c>
       <c r="J5" s="1">
-        <v>33122.3562</v>
+        <v>32993.9382</v>
       </c>
       <c r="K5" s="1">
-        <v>29156.8391</v>
+        <v>29125.9111</v>
       </c>
       <c r="L5" s="1">
-        <v>13.3563</v>
+        <v>13.382</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8673.614100000001</v>
+        <v>-8563.436299999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0635</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +2430,34 @@
         <v>15.3636</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E6" s="1">
-        <v>2776.0009</v>
+        <v>2760.7964</v>
       </c>
       <c r="F6" s="1">
-        <v>544.1876999999999</v>
+        <v>532.9384</v>
       </c>
       <c r="G6" s="1">
-        <v>51010.0501</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>42649.3675</v>
+        <v>42331.0148</v>
       </c>
       <c r="I6" s="1">
-        <v>2518.3462</v>
+        <v>2658.7559</v>
       </c>
       <c r="J6" s="1">
-        <v>45167.7136</v>
+        <v>44989.7707</v>
       </c>
       <c r="K6" s="1">
-        <v>37830.4532</v>
+        <v>37689.3474</v>
       </c>
       <c r="L6" s="1">
-        <v>13.6277</v>
+        <v>13.6516</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8360.6826</v>
+        <v>-8204.267099999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0474</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,46 +2483,46 @@
         <v>13.8711</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E7" s="1">
-        <v>3320.1886</v>
+        <v>3293.7348</v>
       </c>
       <c r="F7" s="1">
-        <v>1020.659</v>
+        <v>1039.9736</v>
       </c>
       <c r="G7" s="1">
-        <v>61520.1506</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>46054.6686</v>
+        <v>45596.4883</v>
       </c>
       <c r="I7" s="1">
-        <v>4157.6635</v>
+        <v>4454.4887</v>
       </c>
       <c r="J7" s="1">
-        <v>50212.3321</v>
+        <v>50050.977</v>
       </c>
       <c r="K7" s="1">
-        <v>46191.1358</v>
+        <v>45893.6145</v>
       </c>
       <c r="L7" s="1">
-        <v>13.9122</v>
+        <v>13.9336</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1249.2004</v>
+        <v>1242.3584</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-12908.4631</v>
+        <v>-13212.1303</v>
       </c>
       <c r="Q7" s="3">
         <v>-0.0898</v>
@@ -3304,34 +2536,34 @@
         <v>14.1252</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E8" s="1">
-        <v>4340.8477</v>
+        <v>4333.7084</v>
       </c>
       <c r="F8" s="1">
-        <v>766.0076</v>
+        <v>706.9949</v>
       </c>
       <c r="G8" s="1">
-        <v>72135.3521</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61315.3415</v>
+        <v>61092.2869</v>
       </c>
       <c r="I8" s="1">
-        <v>1249.2004</v>
+        <v>1242.3584</v>
       </c>
       <c r="J8" s="1">
-        <v>62564.5419</v>
+        <v>62334.6453</v>
       </c>
       <c r="K8" s="1">
-        <v>60348.7994</v>
+        <v>60348.1032</v>
       </c>
       <c r="L8" s="1">
-        <v>13.9025</v>
+        <v>13.9253</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10820.0106</v>
+        <v>-10006.4522</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0391</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +2589,34 @@
         <v>14.1934</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>5106.8553</v>
+        <v>5040.7033</v>
       </c>
       <c r="F9" s="1">
-        <v>730.8373</v>
+        <v>706.8497</v>
       </c>
       <c r="G9" s="1">
-        <v>82856.7056</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>72483.63959999999</v>
+        <v>71401.56170000001</v>
       </c>
       <c r="I9" s="1">
-        <v>429.1898</v>
+        <v>1235.9062</v>
       </c>
       <c r="J9" s="1">
-        <v>72912.8294</v>
+        <v>72637.4679</v>
       </c>
       <c r="K9" s="1">
-        <v>71168.81</v>
+        <v>70354.5554</v>
       </c>
       <c r="L9" s="1">
-        <v>13.9359</v>
+        <v>13.9573</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10373.066</v>
+        <v>-10052.6752</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0048</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +2642,49 @@
         <v>14.1176</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E10" s="1">
-        <v>5837.6926</v>
+        <v>5747.553</v>
       </c>
       <c r="F10" s="1">
-        <v>712.3111</v>
+        <v>769.4852</v>
       </c>
       <c r="G10" s="1">
-        <v>93685.2727</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82414.20849999999</v>
+        <v>80979.57279999999</v>
       </c>
       <c r="I10" s="1">
-        <v>56.1238</v>
+        <v>1183.231</v>
       </c>
       <c r="J10" s="1">
-        <v>82470.33229999999</v>
+        <v>82162.80379999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81541.876</v>
+        <v>80407.2306</v>
       </c>
       <c r="L10" s="1">
-        <v>13.9682</v>
+        <v>13.9898</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2298.0849</v>
+        <v>2268.3165</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7758.0389</v>
+        <v>-8616.7449</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +2695,34 @@
         <v>15.3311</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E11" s="1">
-        <v>6550.0037</v>
+        <v>6517.0382</v>
       </c>
       <c r="F11" s="1">
-        <v>274.1723</v>
+        <v>167.7716</v>
       </c>
       <c r="G11" s="1">
-        <v>104622.1254</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>100418.7618</v>
+        <v>99713.2916</v>
       </c>
       <c r="I11" s="1">
-        <v>2298.0849</v>
+        <v>2566.4861</v>
       </c>
       <c r="J11" s="1">
-        <v>102716.8467</v>
+        <v>102279.7777</v>
       </c>
       <c r="K11" s="1">
-        <v>91597.99980000001</v>
+        <v>91292.292</v>
       </c>
       <c r="L11" s="1">
-        <v>13.9844</v>
+        <v>14.0082</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-4203.3636</v>
+        <v>-2577.2737</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1108</v>
+        <v>0.1098</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +2748,34 @@
         <v>15.3637</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E12" s="1">
-        <v>6824.176</v>
+        <v>6684.8098</v>
       </c>
       <c r="F12" s="1">
-        <v>704.5017</v>
+        <v>671.3283</v>
       </c>
       <c r="G12" s="1">
-        <v>115668.3467</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>104844.5936</v>
+        <v>102498.1889</v>
       </c>
       <c r="I12" s="1">
-        <v>8094.7213</v>
+        <v>9989.2124</v>
       </c>
       <c r="J12" s="1">
-        <v>112939.3148</v>
+        <v>112487.4013</v>
       </c>
       <c r="K12" s="1">
-        <v>95801.3633</v>
+        <v>93869.56570000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.0385</v>
+        <v>14.0422</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10823.7531</v>
+        <v>-10334.7632</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +2801,49 @@
         <v>14.6447</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E13" s="1">
-        <v>7528.6778</v>
+        <v>7356.1381</v>
       </c>
       <c r="F13" s="1">
-        <v>1131.4539</v>
+        <v>1083.9746</v>
       </c>
       <c r="G13" s="1">
-        <v>126825.0301</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>110255.2273</v>
+        <v>107512.9007</v>
       </c>
       <c r="I13" s="1">
-        <v>7270.9682</v>
+        <v>9654.449199999999</v>
       </c>
       <c r="J13" s="1">
-        <v>117526.1955</v>
+        <v>117167.3499</v>
       </c>
       <c r="K13" s="1">
-        <v>106625.1165</v>
+        <v>104204.3289</v>
       </c>
       <c r="L13" s="1">
-        <v>14.1625</v>
+        <v>14.1656</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6141.7584</v>
+        <v>6016.3288</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10428.0443</v>
+        <v>-9889.9151</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.044</v>
+        <v>-0.0434</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +2854,802 @@
         <v>15.486</v>
       </c>
       <c r="C14" s="1">
+        <v>15.455</v>
+      </c>
+      <c r="D14" s="1">
+        <v>15.517</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8440.1127</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-8440.1127</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>130441.9424</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9764.534100000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>140206.4765</v>
+      </c>
+      <c r="K14" s="1">
+        <v>120110.5728</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.2309</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>130441.9424</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.1025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12.9013</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12.8755</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12.9272</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>773.5626999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.3527</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13.326</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.3795</v>
+      </c>
+      <c r="E3" s="1">
+        <v>773.5626999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>734.7669</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10308.4968</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10308.4968</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12.9272</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-9830.813200000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.0308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13.8804</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13.8526</v>
+      </c>
+      <c r="D4" s="1">
+        <v>13.9082</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1508.3296</v>
+      </c>
+      <c r="F4" s="1">
+        <v>679.0576</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30301</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20894.2864</v>
+      </c>
+      <c r="I4" s="1">
+        <v>169.1868</v>
+      </c>
+      <c r="J4" s="1">
+        <v>21063.4731</v>
+      </c>
+      <c r="K4" s="1">
+        <v>19830.8132</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.1475</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>348.1032</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-9096.366</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.0372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14.6268</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14.5976</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14.6561</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2187.3872</v>
+      </c>
+      <c r="F5" s="1">
+        <v>594.1666</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40604.01</v>
+      </c>
+      <c r="H5" s="1">
+        <v>31930.6035</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1072.8208</v>
+      </c>
+      <c r="J5" s="1">
+        <v>33003.4242</v>
+      </c>
+      <c r="K5" s="1">
+        <v>29275.2825</v>
+      </c>
+      <c r="L5" s="1">
+        <v>13.3837</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-8708.165300000001</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15.3636</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15.3329</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.3944</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2781.5538</v>
+      </c>
+      <c r="F6" s="1">
+        <v>545.2826</v>
+      </c>
+      <c r="G6" s="1">
+        <v>51010.0501</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42649.2865</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2364.6555</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45013.942</v>
+      </c>
+      <c r="K6" s="1">
+        <v>37983.4477</v>
+      </c>
+      <c r="L6" s="1">
+        <v>13.6555</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-8394.298500000001</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.0468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13.8711</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13.8434</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13.8989</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3326.8364</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1005.1412</v>
+      </c>
+      <c r="G7" s="1">
+        <v>61520.1506</v>
+      </c>
+      <c r="H7" s="1">
+        <v>46054.7273</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3970.357</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50025.0843</v>
+      </c>
+      <c r="K7" s="1">
+        <v>46377.7462</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13.9405</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1251.6992</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-12718.6578</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-0.0907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14.1252</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14.097</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14.1535</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4331.9776</v>
+      </c>
+      <c r="F8" s="1">
+        <v>785.0934999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>72135.3521</v>
+      </c>
+      <c r="H8" s="1">
+        <v>61067.8885</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1251.6992</v>
+      </c>
+      <c r="J8" s="1">
+        <v>62319.5877</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60348.1032</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13.9308</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-11111.8214</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.0382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14.1934</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14.165</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.2218</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5117.0712</v>
+      </c>
+      <c r="F9" s="1">
+        <v>712.9813</v>
+      </c>
+      <c r="G9" s="1">
+        <v>82856.7056</v>
+      </c>
+      <c r="H9" s="1">
+        <v>72483.3129</v>
+      </c>
+      <c r="I9" s="1">
+        <v>139.8778</v>
+      </c>
+      <c r="J9" s="1">
+        <v>72623.19070000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>71459.9246</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13.965</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-10139.8778</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14.1176</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14.0894</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.1459</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5830.0525</v>
+      </c>
+      <c r="F10" s="1">
+        <v>706.9186</v>
+      </c>
+      <c r="G10" s="1">
+        <v>93685.2727</v>
+      </c>
+      <c r="H10" s="1">
+        <v>82141.9414</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>82141.9414</v>
+      </c>
+      <c r="K10" s="1">
+        <v>81599.8024</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13.9964</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2302.682</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-7697.318</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-0.0058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15.3311</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15.3004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15.3618</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6536.9711</v>
+      </c>
+      <c r="F11" s="1">
+        <v>300.8976</v>
+      </c>
+      <c r="G11" s="1">
+        <v>104622.1254</v>
+      </c>
+      <c r="H11" s="1">
+        <v>100018.2725</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2302.682</v>
+      </c>
+      <c r="J11" s="1">
+        <v>102320.9545</v>
+      </c>
+      <c r="K11" s="1">
+        <v>91599.8024</v>
+      </c>
+      <c r="L11" s="1">
+        <v>14.0126</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-4622.328</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15.3637</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15.333</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15.3945</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6837.8686</v>
+      </c>
+      <c r="F12" s="1">
+        <v>705.8832</v>
+      </c>
+      <c r="G12" s="1">
+        <v>115668.3467</v>
+      </c>
+      <c r="H12" s="1">
+        <v>104845.0399</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7680.354</v>
+      </c>
+      <c r="J12" s="1">
+        <v>112525.394</v>
+      </c>
+      <c r="K12" s="1">
+        <v>96222.13039999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>14.0719</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-10866.7186</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14.6447</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14.6154</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14.674</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7543.7518</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1133.7411</v>
+      </c>
+      <c r="G13" s="1">
+        <v>126825.0301</v>
+      </c>
+      <c r="H13" s="1">
+        <v>110254.9504</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6813.6355</v>
+      </c>
+      <c r="J13" s="1">
+        <v>117068.5858</v>
+      </c>
+      <c r="K13" s="1">
+        <v>107088.849</v>
+      </c>
+      <c r="L13" s="1">
+        <v>14.1957</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>6154.0818</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-10482.4352</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-0.0445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
         <v>15.486</v>
       </c>
+      <c r="C14" s="1">
+        <v>15.455</v>
+      </c>
       <c r="D14" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E14" s="1">
-        <v>8660.1317</v>
+        <v>8677.492899999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8660.1317</v>
+        <v>-8677.492899999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134110.7989</v>
+        <v>134110.6532</v>
       </c>
       <c r="I14" s="1">
-        <v>6842.9238</v>
+        <v>6331.2003</v>
       </c>
       <c r="J14" s="1">
-        <v>140953.7227</v>
+        <v>140441.8534</v>
       </c>
       <c r="K14" s="1">
-        <v>123194.9192</v>
+        <v>123725.366</v>
       </c>
       <c r="L14" s="1">
-        <v>14.2255</v>
+        <v>14.2582</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134110.7989</v>
+        <v>134110.6532</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1053</v>
+        <v>0.1052</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3690,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>12.9013</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.3527</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E3" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>733.9484</v>
+        <v>738.5189</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10349.807</v>
+        <v>10308.4968</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9800.192999999999</v>
+        <v>-9881.0139</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.035</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.8804</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E4" s="1">
-        <v>1509.0581</v>
+        <v>1512.0816</v>
       </c>
       <c r="F4" s="1">
-        <v>684.8448</v>
+        <v>686.2241</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20946.33</v>
+        <v>20946.2622</v>
       </c>
       <c r="I4" s="1">
-        <v>199.807</v>
+        <v>118.9861</v>
       </c>
       <c r="J4" s="1">
-        <v>21146.137</v>
+        <v>21065.2482</v>
       </c>
       <c r="K4" s="1">
-        <v>19800.193</v>
+        <v>19881.0139</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1209</v>
+        <v>13.1481</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>348.7994</v>
+        <v>348.1032</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9157.120699999999</v>
+        <v>-9196.0386</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0391</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.6268</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E5" s="1">
-        <v>2193.9029</v>
+        <v>2198.3057</v>
       </c>
       <c r="F5" s="1">
-        <v>602.9517</v>
+        <v>604.1436</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32089.7791</v>
+        <v>32089.9878</v>
       </c>
       <c r="I5" s="1">
-        <v>1042.6863</v>
+        <v>922.9474</v>
       </c>
       <c r="J5" s="1">
-        <v>33132.4654</v>
+        <v>33012.9352</v>
       </c>
       <c r="K5" s="1">
-        <v>29306.113</v>
+        <v>29425.1558</v>
       </c>
       <c r="L5" s="1">
-        <v>13.358</v>
+        <v>13.3854</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8819.2546</v>
+        <v>-8854.3884</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0638</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>15.3636</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E6" s="1">
-        <v>2796.8547</v>
+        <v>2802.4493</v>
       </c>
       <c r="F6" s="1">
-        <v>556.6998</v>
+        <v>557.8198</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42969.7563</v>
+        <v>42969.6747</v>
       </c>
       <c r="I6" s="1">
-        <v>2223.4317</v>
+        <v>2068.559</v>
       </c>
       <c r="J6" s="1">
-        <v>45193.188</v>
+        <v>45038.2337</v>
       </c>
       <c r="K6" s="1">
-        <v>38125.3677</v>
+        <v>38279.5442</v>
       </c>
       <c r="L6" s="1">
-        <v>13.6315</v>
+        <v>13.6593</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8552.913</v>
+        <v>-8587.300499999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0478</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.8711</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E7" s="1">
-        <v>3353.5545</v>
+        <v>3360.269</v>
       </c>
       <c r="F7" s="1">
-        <v>985.5396</v>
+        <v>969.9515</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>46517.4892</v>
+        <v>46517.5485</v>
       </c>
       <c r="I7" s="1">
-        <v>3670.5187</v>
+        <v>3481.2586</v>
       </c>
       <c r="J7" s="1">
-        <v>50188.0079</v>
+        <v>49998.8071</v>
       </c>
       <c r="K7" s="1">
-        <v>46678.2807</v>
+        <v>46866.8447</v>
       </c>
       <c r="L7" s="1">
-        <v>13.919</v>
+        <v>13.9473</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1258.5846</v>
+        <v>1261.1022</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-12411.9341</v>
+        <v>-12220.1564</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0907</v>
+        <v>-0.0916</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.1252</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E8" s="1">
-        <v>4339.0941</v>
+        <v>4330.2205</v>
       </c>
       <c r="F8" s="1">
-        <v>797.0567</v>
+        <v>795.6408</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61290.5717</v>
+        <v>61043.1187</v>
       </c>
       <c r="I8" s="1">
-        <v>1258.5846</v>
+        <v>1261.1022</v>
       </c>
       <c r="J8" s="1">
-        <v>62549.1563</v>
+        <v>62304.2209</v>
       </c>
       <c r="K8" s="1">
-        <v>60348.7994</v>
+        <v>60348.1032</v>
       </c>
       <c r="L8" s="1">
-        <v>13.9082</v>
+        <v>13.9365</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11258.5846</v>
+        <v>-11261.1022</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0392</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.1934</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>5136.1507</v>
+        <v>5125.8613</v>
       </c>
       <c r="F9" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>72899.4418</v>
+        <v>72607.8257</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>72899.4418</v>
+        <v>72607.8257</v>
       </c>
       <c r="K9" s="1">
-        <v>71607.38400000001</v>
+        <v>71609.20540000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.9418</v>
+        <v>13.9702</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0048</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>14.1176</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E10" s="1">
-        <v>5840.7036</v>
+        <v>5829.0072</v>
       </c>
       <c r="F10" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82456.71649999999</v>
+        <v>82127.2141</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82456.71649999999</v>
+        <v>82127.2141</v>
       </c>
       <c r="K10" s="1">
-        <v>81607.38400000001</v>
+        <v>81609.20540000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.9722</v>
+        <v>14.0005</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2311.2678</v>
+        <v>2306.6376</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7688.7322</v>
+        <v>-7693.3624</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>15.3311</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E11" s="1">
-        <v>6549.0392</v>
+        <v>6535.9258</v>
       </c>
       <c r="F11" s="1">
-        <v>432.0134</v>
+        <v>459.1342</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>100403.9756</v>
+        <v>100002.2794</v>
       </c>
       <c r="I11" s="1">
-        <v>2311.2678</v>
+        <v>2306.6376</v>
       </c>
       <c r="J11" s="1">
-        <v>102715.2434</v>
+        <v>102308.917</v>
       </c>
       <c r="K11" s="1">
-        <v>91607.38400000001</v>
+        <v>91609.20540000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.9879</v>
+        <v>14.0163</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6623.2411</v>
+        <v>-7053.1281</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.111</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>15.3637</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E12" s="1">
-        <v>6981.0527</v>
+        <v>6995.06</v>
       </c>
       <c r="F12" s="1">
-        <v>740.5655</v>
+        <v>742.0185</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107254.799</v>
+        <v>107255.2556</v>
       </c>
       <c r="I12" s="1">
-        <v>5688.0268</v>
+        <v>5253.5095</v>
       </c>
       <c r="J12" s="1">
-        <v>112942.8258</v>
+        <v>112508.7651</v>
       </c>
       <c r="K12" s="1">
-        <v>98230.625</v>
+        <v>98662.33349999999</v>
       </c>
       <c r="L12" s="1">
-        <v>14.071</v>
+        <v>14.1046</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11377.8259</v>
+        <v>-11423.0034</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>14.6447</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E13" s="1">
-        <v>7721.6182</v>
+        <v>7737.0785</v>
       </c>
       <c r="F13" s="1">
-        <v>977.159</v>
+        <v>942.5178</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113080.7815</v>
+        <v>113080.4974</v>
       </c>
       <c r="I13" s="1">
-        <v>4310.2008</v>
+        <v>3830.506</v>
       </c>
       <c r="J13" s="1">
-        <v>117390.9823</v>
+        <v>116911.0034</v>
       </c>
       <c r="K13" s="1">
-        <v>109608.451</v>
+        <v>110085.337</v>
       </c>
       <c r="L13" s="1">
-        <v>14.195</v>
+        <v>14.2283</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>6282.9474</v>
+        <v>6295.554</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8027.2534</v>
+        <v>-7534.952</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0452</v>
+        <v>-0.0457</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>15.486</v>
       </c>
       <c r="C14" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D14" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E14" s="1">
-        <v>8698.7772</v>
+        <v>8679.596299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8698.7772</v>
+        <v>-8679.596299999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134709.2636</v>
+        <v>134143.1609</v>
       </c>
       <c r="I14" s="1">
-        <v>6282.9474</v>
+        <v>6295.554</v>
       </c>
       <c r="J14" s="1">
-        <v>140992.211</v>
+        <v>140438.715</v>
       </c>
       <c r="K14" s="1">
-        <v>123918.6518</v>
+        <v>123915.843</v>
       </c>
       <c r="L14" s="1">
-        <v>14.2455</v>
+        <v>14.2767</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134709.2636</v>
+        <v>134143.1609</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1068</v>
+        <v>0.1066</v>
       </c>
     </row>
   </sheetData>
@@ -4450,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.293</v>
+        <v>14.3216</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1905</v>
+        <v>14.2191</v>
       </c>
       <c r="E3" s="1">
-        <v>14.2018</v>
+        <v>14.2309</v>
       </c>
       <c r="F3" s="1">
-        <v>14.2255</v>
+        <v>14.2582</v>
       </c>
       <c r="G3" s="1">
-        <v>14.2455</v>
+        <v>14.2767</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.198</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3065</v>
+        <v>0.2941</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3014</v>
+        <v>0.2904</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3051</v>
+        <v>0.2939</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3077</v>
+        <v>0.2961</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3083</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,13 +4536,13 @@
         <v>0.1663</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1967</v>
+        <v>0.1963</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1844</v>
+        <v>0.1845</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1874</v>
+        <v>0.1875</v>
       </c>
       <c r="F5" s="3">
         <v>0.19</v>
@@ -4559,19 +4559,19 @@
         <v>1.0687</v>
       </c>
       <c r="C6" s="4">
-        <v>1.455</v>
+        <v>1.3947</v>
       </c>
       <c r="D6" s="4">
-        <v>1.5238</v>
+        <v>1.4639</v>
       </c>
       <c r="E6" s="4">
-        <v>1.5195</v>
+        <v>1.4591</v>
       </c>
       <c r="F6" s="4">
-        <v>1.5127</v>
+        <v>1.4514</v>
       </c>
       <c r="G6" s="4">
-        <v>1.502</v>
+        <v>1.4398</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3417</v>
+        <v>0.3322</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3541</v>
+        <v>0.3445</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3544</v>
+        <v>0.3447</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3533</v>
+        <v>0.3432</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3504</v>
+        <v>0.3401</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10414.822</v>
+        <v>10393.7424</v>
       </c>
       <c r="D8" s="1">
-        <v>9679.8943</v>
+        <v>9697.899799999999</v>
       </c>
       <c r="E8" s="1">
-        <v>9856.746800000001</v>
+        <v>9875.106900000001</v>
       </c>
       <c r="F8" s="1">
-        <v>10037.8431</v>
+        <v>10056.5662</v>
       </c>
       <c r="G8" s="1">
-        <v>10201.5992</v>
+        <v>10211.397</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P34_KFSDIV.xlsx
+++ b/output/1Y_P34_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>11797.7225</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1362</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2102</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1798</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1485</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
